--- a/tests/assets/origin.xlsx
+++ b/tests/assets/origin.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27580" windowHeight="13640"/>
+    <workbookView windowWidth="14460" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="localization" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">localization!$A$1:$B$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">localization!$A$1:$B$168</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>`</t>
   </si>
@@ -31,40 +31,34 @@
     <t>cn</t>
   </si>
   <si>
-    <t>BUILDING_NAME_10001</t>
-  </si>
-  <si>
-    <t>指挥部</t>
-  </si>
-  <si>
-    <t>BUILDING_NAME_10002</t>
-  </si>
-  <si>
-    <t>农场</t>
-  </si>
-  <si>
-    <t>BUILDING_NAME_10003</t>
-  </si>
-  <si>
-    <t>炼钢厂</t>
-  </si>
-  <si>
-    <t>BUILDING_NAME_10004</t>
-  </si>
-  <si>
-    <t>原油厂</t>
-  </si>
-  <si>
-    <t>BUILDING_NAME_10005</t>
-  </si>
-  <si>
-    <t>芯片厂</t>
-  </si>
-  <si>
-    <t>BUILDING_NAME_10006</t>
-  </si>
-  <si>
-    <t>近战兵营</t>
+    <t>ITEM_NAME_108005</t>
+  </si>
+  <si>
+    <t>15小时任意加速</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_109001</t>
+  </si>
+  <si>
+    <t>30天建造加速</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_109002</t>
+  </si>
+  <si>
+    <t>7天建造加速</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_109003</t>
+  </si>
+  <si>
+    <t>3天建造加速</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_109004</t>
+  </si>
+  <si>
+    <t>24小时建造加速</t>
   </si>
   <si>
     <t>BUILDING_LIST_PROMPT_1</t>
@@ -239,18 +233,6 @@
   </si>
   <si>
     <t>提升部队的资源负载量</t>
-  </si>
-  <si>
-    <t>HOSPITAL_SHORT_TITLE_1</t>
-  </si>
-  <si>
-    <t>急速治疗</t>
-  </si>
-  <si>
-    <t>HOSPITAL_SHORT_TITLE_2</t>
-  </si>
-  <si>
-    <t>普通治疗</t>
   </si>
   <si>
     <t>HOSPITAL_SERIOUS_INJURY_UNIT_NUMBER</t>
@@ -346,24 +328,183 @@
   <si>
     <t>更换阵容后，您手下的指挥官不会受到任何影响。您的基地增益会被新的基地增益所替换。如果您之前的阵营和新阵营的专属部队类型相同，则会被一一替换；如果您之前阵营和新阵营的专属部队类型不同，则之前阵营的专属部队会被替换为普通部队，而新阵营的专属部队也会替换之前的普通部队</t>
   </si>
+  <si>
+    <t>ITEM_DES_115081</t>
+  </si>
+  <si>
+    <t>提升所有部队10%的防御力，持续24小时</t>
+  </si>
+  <si>
+    <t>ITEM_DES_115082</t>
+  </si>
+  <si>
+    <t>提升所有部队5%的防御力，持续24小时</t>
+  </si>
+  <si>
+    <t>ITEM_DES_115083</t>
+  </si>
+  <si>
+    <t>提升所有部队5%的防御力，持续12小时</t>
+  </si>
+  <si>
+    <t>ITEM_DES_115091</t>
+  </si>
+  <si>
+    <t>提升所有部队10%的攻击力，持续24小时</t>
+  </si>
+  <si>
+    <t>ITEM_DES_115092</t>
+  </si>
+  <si>
+    <t>提升所有部队5%的攻击力，持续24小时</t>
+  </si>
+  <si>
+    <t>ITEM_DES_115093</t>
+  </si>
+  <si>
+    <t>提升所有部队5%的攻击力，持续12小时</t>
+  </si>
+  <si>
+    <t>TECH_NAME_241</t>
+  </si>
+  <si>
+    <t>部队生命Ⅱ</t>
+  </si>
+  <si>
+    <t>TECH_NAME_242</t>
+  </si>
+  <si>
+    <t>部队攻击Ⅱ</t>
+  </si>
+  <si>
+    <t>TECH_NAME_243</t>
+  </si>
+  <si>
+    <t>部队防御Ⅱ</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_108001</t>
+  </si>
+  <si>
+    <t>30天任意加速</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_108002</t>
+  </si>
+  <si>
+    <t>7天任意加速</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_108003</t>
+  </si>
+  <si>
+    <t>3天任意加速</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_108004</t>
+  </si>
+  <si>
+    <t>24小时任意加速</t>
+  </si>
+  <si>
+    <t>ARMY_INFANTRY_1</t>
+  </si>
+  <si>
+    <t>近战部队Ⅰ</t>
+  </si>
+  <si>
+    <t>ARMY_SNIPER_5</t>
+  </si>
+  <si>
+    <t>远程部队Ⅴ</t>
+  </si>
+  <si>
+    <t>ARMY_INFANTRY_1_DESC</t>
+  </si>
+  <si>
+    <t>近战部队Ⅰ描述</t>
+  </si>
+  <si>
+    <t>ARMY_SNIPER_2_DESC</t>
+  </si>
+  <si>
+    <t>远程部队Ⅱ描述</t>
+  </si>
+  <si>
+    <t>ARMY_SNIPER_3_DESC</t>
+  </si>
+  <si>
+    <t>远程部队Ⅲ描述</t>
+  </si>
+  <si>
+    <t>ARMY_SNIPER_4_DESC</t>
+  </si>
+  <si>
+    <t>远程部队Ⅳ描述</t>
+  </si>
+  <si>
+    <t>ARMY_SNIPER_5_DESC</t>
+  </si>
+  <si>
+    <t>远程部队Ⅴ描述</t>
+  </si>
+  <si>
+    <t>ARMY_CAR_5_DESC</t>
+  </si>
+  <si>
+    <t>机动部队Ⅴ描述</t>
+  </si>
+  <si>
+    <t>ARMY_TRANSPORT_4_DESC</t>
+  </si>
+  <si>
+    <t>运输部队Ⅳ描述</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]General"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,22 +515,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -404,7 +547,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -419,31 +562,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,7 +596,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +611,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,32 +624,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,187 +640,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,11 +834,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,26 +866,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,229 +915,235 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="常规 10" xfId="30"/>
-    <cellStyle name="货币[0]" xfId="31" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="33" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
-    <cellStyle name="标题" xfId="35" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
-    <cellStyle name="注释" xfId="39" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="常规 10" xfId="47"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1297,13 +1421,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="70.625" style="1" customWidth="1"/>
@@ -1622,19 +1746,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" ht="21" customHeight="1" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" ht="9" customHeight="1" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1646,19 +1770,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" ht="112" spans="1:2">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" ht="202" customHeight="1" spans="1:2">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1735,80 +1859,169 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54"/>
-      <c r="B54"/>
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55"/>
-      <c r="B55"/>
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56"/>
-      <c r="B56"/>
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57"/>
-      <c r="B57"/>
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58"/>
-      <c r="B58"/>
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59"/>
-      <c r="B59"/>
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60"/>
-      <c r="B60"/>
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61"/>
-      <c r="B61"/>
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62"/>
-      <c r="B62"/>
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63"/>
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64"/>
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65"/>
-      <c r="B65"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66"/>
-      <c r="B66"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67"/>
-      <c r="B67"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68"/>
-      <c r="B68"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69"/>
-      <c r="B69"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70"/>
-      <c r="B70"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71"/>
-      <c r="B71"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72"/>
-      <c r="B72"/>
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" spans="1:10">
+      <c r="A64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" ht="15.75" spans="1:10">
+      <c r="A65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" ht="15.75" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" spans="1:2">
+      <c r="A67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" spans="1:2">
+      <c r="A68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" spans="1:2">
+      <c r="A69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="1:2">
+      <c r="A71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" spans="1:2">
+      <c r="A72" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73"/>
@@ -2258,116 +2471,42 @@
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185"/>
-      <c r="B185"/>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186"/>
-      <c r="B186"/>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187"/>
-      <c r="B187"/>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188"/>
-      <c r="B188"/>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189"/>
-      <c r="B189"/>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190"/>
-      <c r="B190"/>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191"/>
-      <c r="B191"/>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192"/>
-      <c r="B192"/>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193"/>
-      <c r="B193"/>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194"/>
-      <c r="B194"/>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195"/>
-      <c r="B195"/>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196"/>
-      <c r="B196"/>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197"/>
-      <c r="B197"/>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198"/>
-      <c r="B198"/>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199"/>
-      <c r="B199"/>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200"/>
-      <c r="B200"/>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201"/>
-      <c r="B201"/>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202"/>
-      <c r="B202"/>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203"/>
-      <c r="B203"/>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204"/>
-      <c r="B204"/>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205"/>
-      <c r="B205"/>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206"/>
-      <c r="B206"/>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207"/>
-      <c r="B207"/>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208"/>
-      <c r="B208"/>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209"/>
-      <c r="B209"/>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210"/>
-      <c r="B210"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B194">
+  <autoFilter ref="A1:B168">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="A1:A53 A211:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A7">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A56">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:A59">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A63">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A72">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B63">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:C65">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2 A8:A50 A185:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
